--- a/Checklist.xlsx
+++ b/Checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bernh\Nextcloud\Projekte\1901-TechnikumWien\LVs\BIF3-SWEN1_WS2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MARLIS\Fh_Technikum\Semester 3\Software\MonsterTradingCardGame-Tiefengraber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6654F465-E96B-4F58-9905-119C7AA41DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92912F1F-163D-465C-AEB6-A67CD47ACA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-15" windowWidth="25440" windowHeight="15390" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="48">
   <si>
     <t>Checklist MonsterTradingCardsGame</t>
   </si>
@@ -175,6 +173,9 @@
   </si>
   <si>
     <t>Describes design</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
@@ -607,43 +608,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58600B0-3567-4A3D-A785-925E0537D06D}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="68" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.5">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -651,76 +652,76 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.5">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
@@ -731,115 +732,151 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C25" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C26" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B28"/>
       <c r="C28"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C29" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C30" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C31" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C32" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C33" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C34" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>30</v>
       </c>
@@ -847,109 +884,142 @@
       <c r="C36" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B38"/>
       <c r="C38"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C39" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C40" s="6">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C41" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C42" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B44"/>
       <c r="C44" s="6"/>
     </row>
-    <row r="46" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C47" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C48" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C49" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C50" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C51" s="6">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C52" s="6">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="D52" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.5">
       <c r="A54" s="2" t="s">
         <v>43</v>
       </c>
@@ -1106,18 +1176,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1139,14 +1209,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B871BF9-5772-4B74-B6DF-7878EF29873D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FFD0135-03B1-4A6A-9DC8-B4D791C0671E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -1160,4 +1222,12 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B871BF9-5772-4B74-B6DF-7878EF29873D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>